--- a/docs/HexaDec.xlsx
+++ b/docs/HexaDec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\EMULATORS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5C51E2-9BE6-4A2D-9878-AEFBD85DA221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326A4F39-2EEE-4977-9B7B-7A2B123A2E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{C70C2E63-9336-4B10-BFD2-FFF09962B0E6}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
-  <si>
-    <t>Conversor</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Decimal</t>
   </si>
@@ -47,9 +44,6 @@
     <t>Hexadecimal</t>
   </si>
   <si>
-    <t>Binario</t>
-  </si>
-  <si>
     <t>Operation</t>
   </si>
   <si>
@@ -65,9 +59,6 @@
     <t>Result</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
@@ -78,6 +69,21 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>Conversion</t>
+  </si>
+  <si>
+    <t>Binary</t>
+  </si>
+  <si>
+    <t>080d</t>
+  </si>
+  <si>
+    <t>081a</t>
+  </si>
+  <si>
+    <t>0d</t>
   </si>
 </sst>
 </file>
@@ -156,13 +162,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,124 +507,124 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B3" s="5" t="str">
         <f>DEC2HEX(A3)</f>
-        <v>A</v>
+        <v>64</v>
       </c>
       <c r="C3" s="5" t="str">
         <f>DEC2BIN(A3)</f>
-        <v>1010</v>
+        <v>1100100</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5">
         <f>HEX2DEC(A5)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5" t="str">
         <f>HEX2BIN(A5)</f>
-        <v>1011</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D9" s="5" t="str">
         <f>DEC2HEX(D10)</f>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="E9" s="5">
         <f>HEX2DEC(D9)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F9" s="5" t="str">
         <f>HEX2BIN(D9)</f>
-        <v>1010</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10">
         <f>HEX2DEC(B9)</f>
-        <v>9</v>
+        <v>2074</v>
       </c>
       <c r="C10">
         <f>HEX2DEC(C9)</f>
-        <v>1</v>
+        <v>2061</v>
       </c>
       <c r="D10">
         <f>IF(A9="+",B10+C10,IF(A9="-",B10-C10,IF(A9="*",B10*C10,IF(A9="/",B10/C10,0))))</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -625,26 +632,26 @@
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9" xr:uid="{4A2A55A2-1A60-460E-831D-7FA79752C144}">
       <formula1>$A$14:$A$17</formula1>
     </dataValidation>

--- a/docs/HexaDec.xlsx
+++ b/docs/HexaDec.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\EMULATORS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326A4F39-2EEE-4977-9B7B-7A2B123A2E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EA7097-99BE-4BF8-ABB8-18202CF80491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{C70C2E63-9336-4B10-BFD2-FFF09962B0E6}"/>
   </bookViews>
@@ -77,13 +77,13 @@
     <t>Binary</t>
   </si>
   <si>
-    <t>080d</t>
-  </si>
-  <si>
-    <t>081a</t>
-  </si>
-  <si>
     <t>0d</t>
+  </si>
+  <si>
+    <t>d000</t>
+  </si>
+  <si>
+    <t>d800</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -554,7 +554,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5">
         <f>HEX2DEC(A5)</f>
@@ -595,57 +595,54 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="D9" s="5" t="str">
         <f>DEC2HEX(D10)</f>
-        <v>D</v>
+        <v>800</v>
       </c>
       <c r="E9" s="5">
         <f>HEX2DEC(D9)</f>
-        <v>13</v>
-      </c>
-      <c r="F9" s="5" t="str">
+        <v>2048</v>
+      </c>
+      <c r="F9" s="5" t="e">
         <f>HEX2BIN(D9)</f>
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B10">
         <f>HEX2DEC(B9)</f>
-        <v>2074</v>
+        <v>55296</v>
       </c>
       <c r="C10">
         <f>HEX2DEC(C9)</f>
-        <v>2061</v>
+        <v>53248</v>
       </c>
       <c r="D10">
         <f>IF(A9="+",B10+C10,IF(A9="-",B10-C10,IF(A9="*",B10*C10,IF(A9="/",B10/C10,0))))</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>

--- a/docs/HexaDec.xlsx
+++ b/docs/HexaDec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\EMULATORS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EA7097-99BE-4BF8-ABB8-18202CF80491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7966123-0ED0-40E8-BBF9-5F7880BBF028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{C70C2E63-9336-4B10-BFD2-FFF09962B0E6}"/>
   </bookViews>
@@ -80,10 +80,10 @@
     <t>0d</t>
   </si>
   <si>
-    <t>d000</t>
-  </si>
-  <si>
-    <t>d800</t>
+    <t>fc</t>
+  </si>
+  <si>
+    <t>fd</t>
   </si>
 </sst>
 </file>
@@ -530,15 +530,15 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="str">
         <f>DEC2HEX(A3)</f>
-        <v>64</v>
+        <v>A</v>
       </c>
       <c r="C3" s="5" t="str">
         <f>DEC2BIN(A3)</f>
-        <v>1100100</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -592,7 +592,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>15</v>
@@ -602,29 +602,29 @@
       </c>
       <c r="D9" s="5" t="str">
         <f>DEC2HEX(D10)</f>
-        <v>800</v>
+        <v>1F9</v>
       </c>
       <c r="E9" s="5">
         <f>HEX2DEC(D9)</f>
-        <v>2048</v>
-      </c>
-      <c r="F9" s="5" t="e">
+        <v>505</v>
+      </c>
+      <c r="F9" s="5" t="str">
         <f>HEX2BIN(D9)</f>
-        <v>#NUM!</v>
+        <v>111111001</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B10">
         <f>HEX2DEC(B9)</f>
-        <v>55296</v>
+        <v>253</v>
       </c>
       <c r="C10">
         <f>HEX2DEC(C9)</f>
-        <v>53248</v>
+        <v>252</v>
       </c>
       <c r="D10">
         <f>IF(A9="+",B10+C10,IF(A9="-",B10-C10,IF(A9="*",B10*C10,IF(A9="/",B10/C10,0))))</f>
-        <v>2048</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
